--- a/Code/Jupiter/Connect4/PPO Training_Sessions.xlsx
+++ b/Code/Jupiter/Connect4/PPO Training_Sessions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,131 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PPQ-7950-SelfPlay_L1L2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.943605554699898</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7950</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PPQ-7950-SelfPlay_L1L2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.62577840924263</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7950</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PPQ-7950-SelfPlay_L1L2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.478709620369805</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7950</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PPQ-14650-SelfPlay_L1L2L3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.333908002045419</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14650</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PPQ-14650-SelfPlay_L1L2L3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11.16740074323283</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14650</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Code/Jupiter/Connect4/PPO Training_Sessions.xlsx
+++ b/Code/Jupiter/Connect4/PPO Training_Sessions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +695,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PPQ-14650-SelfPlay_L1L2L3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.414096009466383</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14650</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Code/Jupiter/Connect4/PPO Training_Sessions.xlsx
+++ b/Code/Jupiter/Connect4/PPO Training_Sessions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TRAINING_SESSION</t>
   </si>
@@ -37,7 +37,22 @@
     <t>Lookahead-3</t>
   </si>
   <si>
-    <t>PPQ-1650-Random2 - at-2025-09-12 07-23-23</t>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>PPQ-900-SPa - RANDOM - at-2025-09-12 13-28-26</t>
+  </si>
+  <si>
+    <t>RANDOM2</t>
+  </si>
+  <si>
+    <t>PPQ-1800-SPa - RANDOM2 - at-2025-09-12 22-57-27</t>
+  </si>
+  <si>
+    <t>PPQ-700-BootL1b - RANDOM2 - at-2025-09-13 09-00-53</t>
+  </si>
+  <si>
+    <t>PPQ-1000-SPa - RANDOM2 - at-2025-09-13 14-35-28</t>
   </si>
 </sst>
 </file>
@@ -395,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,13 +444,13 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8001789024141099</v>
+        <v>0.499512416852845</v>
       </c>
       <c r="C2">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="D2">
-        <v>0.8159999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -444,6 +459,121 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.450359783636199</v>
+      </c>
+      <c r="C3">
+        <v>900</v>
+      </c>
+      <c r="D3">
+        <v>0.905</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.828380296760135</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4">
+        <v>0.915</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.8838551741838455</v>
+      </c>
+      <c r="C5">
+        <v>1800</v>
+      </c>
+      <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.3497853494352764</v>
+      </c>
+      <c r="C6">
+        <v>700</v>
+      </c>
+      <c r="D6">
+        <v>0.881</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.5092972160047955</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>0.905</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
